--- a/data/processed/documents/APP-000017/assets_liabilities.xlsx
+++ b/data/processed/documents/APP-000017/assets_liabilities.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hamad Al Qassimi</t>
+          <t>Anwar Al Shehhi</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>5500</v>
+        <v>8298.18</v>
       </c>
     </row>
     <row r="6">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>188540</v>
+        <v>7765</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>16640</v>
+        <v>10319</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>171900</v>
+        <v>-2554</v>
       </c>
     </row>
     <row r="9">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B9" s="5" t="n">
-        <v>11.33</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -570,7 +570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,41 +603,26 @@
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t>Vehicles</t>
+          <t>Liquid Assets</t>
         </is>
       </c>
       <c r="B2" s="7" t="inlineStr">
         <is>
-          <t>Premium Car</t>
+          <t>Savings Account</t>
         </is>
       </c>
       <c r="C2" s="8" t="n">
-        <v>181351</v>
+        <v>7765</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>Liquid Assets</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Savings Account</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="n">
-        <v>7189</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="inlineStr">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>TOTAL ASSETS</t>
         </is>
       </c>
-      <c r="C4" s="10" t="n">
-        <v>188540</v>
+      <c r="C3" s="10" t="n">
+        <v>7765</v>
       </c>
     </row>
   </sheetData>
@@ -705,10 +690,10 @@
         </is>
       </c>
       <c r="C2" s="8" t="n">
-        <v>16640</v>
+        <v>10319</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>832</v>
+        <v>516</v>
       </c>
       <c r="E2" s="7" t="n">
         <v>1</v>
@@ -721,7 +706,7 @@
         </is>
       </c>
       <c r="C3" s="12" t="n">
-        <v>16640</v>
+        <v>10319</v>
       </c>
     </row>
   </sheetData>
